--- a/TPO - TC-PE53.xlsx
+++ b/TPO - TC-PE53.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Facultad\Testing de Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70B76A-4A40-4094-9498-10B6932F132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD4003-7AF0-4A0F-B723-9A89376452D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01 - Template" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02 - Template" sheetId="2" r:id="rId2"/>
-    <sheet name="TC03 - Template" sheetId="3" r:id="rId3"/>
-    <sheet name="TC04 - Template" sheetId="4" r:id="rId4"/>
-    <sheet name="TC05 - Template" sheetId="5" r:id="rId5"/>
-    <sheet name="TC06 - Template" sheetId="6" r:id="rId6"/>
+    <sheet name="TC01 " sheetId="1" r:id="rId1"/>
+    <sheet name="TC02" sheetId="2" r:id="rId2"/>
+    <sheet name="TC03" sheetId="3" r:id="rId3"/>
+    <sheet name="TC04 " sheetId="4" r:id="rId4"/>
+    <sheet name="TC05 " sheetId="5" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="92">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Acceso a internet</t>
   </si>
   <si>
-    <t>Tener una cuenta creada</t>
-  </si>
-  <si>
     <t>Contraseña:  428phy!</t>
   </si>
   <si>
@@ -241,21 +238,9 @@
     <t>Número telefonico:  (001)27864564</t>
   </si>
   <si>
-    <t>Abrir página web</t>
-  </si>
-  <si>
-    <t>Ir a opciones de configuracion</t>
-  </si>
-  <si>
     <t>Modificar datos de cuenta</t>
   </si>
   <si>
-    <t>Se abre la página</t>
-  </si>
-  <si>
-    <t>Se abre menú opciones</t>
-  </si>
-  <si>
     <t>Modifica información del usuario</t>
   </si>
   <si>
@@ -308,6 +293,30 @@
   </si>
   <si>
     <t>Usuario no puede modificar los datos de su cuenta por email invalido</t>
+  </si>
+  <si>
+    <t>Ingresar al Navegador Web</t>
+  </si>
+  <si>
+    <t>Tener sesion iniciada</t>
+  </si>
+  <si>
+    <t>Salvar los cambios</t>
+  </si>
+  <si>
+    <t>Se guarda el cambio de datos</t>
+  </si>
+  <si>
+    <t>Salar los cambios</t>
+  </si>
+  <si>
+    <t>Se ingresan los datos</t>
+  </si>
+  <si>
+    <t>Ir a modificar cuenta</t>
+  </si>
+  <si>
+    <t>Ingresa a modificar cuenta</t>
   </si>
 </sst>
 </file>
@@ -777,6 +786,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,6 +849,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,27 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1178,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,49 +1210,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1314,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,25 +1331,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -1352,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1361,37 +1372,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -1407,53 +1418,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -1479,18 +1490,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1514,18 +1525,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -1553,14 +1564,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1588,10 +1599,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1603,10 +1614,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1618,10 +1629,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1632,74 +1643,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -1765,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB43-0FFB-4190-909A-F53CAD079E33}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E14"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,49 +1799,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1901,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,25 +1920,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1939,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1948,37 +1961,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -1994,53 +2007,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -2070,14 +2083,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -2101,18 +2114,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2140,14 +2153,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -2175,10 +2188,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2190,10 +2203,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2205,10 +2218,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2219,74 +2232,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2351,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038B049-11CA-4A70-80B7-3BAEE0771E9C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,49 +2387,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -2487,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,25 +2508,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -2525,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2534,37 +2549,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -2580,53 +2595,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -2656,14 +2671,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -2687,18 +2702,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2726,14 +2741,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -2761,10 +2776,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2776,10 +2791,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2791,10 +2806,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2805,74 +2820,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2937,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20333BF7-34E5-4239-A220-3A7EBB5F0B6B}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E14"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,49 +2975,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -3073,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,25 +3096,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -3111,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -3120,37 +3137,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -3166,53 +3183,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -3242,14 +3259,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -3273,18 +3290,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -3312,14 +3329,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -3347,10 +3364,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -3362,10 +3379,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3377,10 +3394,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3391,74 +3408,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -3523,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D373FCD7-605D-4F13-AC67-D93049A6865B}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,49 +3563,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -3659,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,25 +3684,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3697,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -3706,37 +3725,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -3752,53 +3771,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -3828,14 +3847,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -3859,18 +3878,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -3898,14 +3917,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -3933,10 +3952,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -3948,10 +3967,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3963,10 +3982,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3977,74 +3996,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -4109,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF74F3C7-D441-4D6E-9E77-CC4C773D3AFB}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,49 +4151,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -4245,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,25 +4272,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -4283,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4292,37 +4313,37 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -4338,53 +4359,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -4414,14 +4435,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -4445,18 +4466,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -4484,14 +4505,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -4519,10 +4540,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -4534,10 +4555,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -4549,10 +4570,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -4563,74 +4584,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="34"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -4692,12 +4713,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -4829,16 +4859,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4847,7 +4876,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4863,12 +4892,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TPO - TC-PE53.xlsx
+++ b/TPO - TC-PE53.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDD4003-7AF0-4A0F-B723-9A89376452D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1C29A-ABFF-48C1-BD83-BAEDCC641FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01 " sheetId="1" r:id="rId1"/>
     <sheet name="TC02" sheetId="2" r:id="rId2"/>
-    <sheet name="TC03" sheetId="3" r:id="rId3"/>
-    <sheet name="TC04 " sheetId="4" r:id="rId4"/>
+    <sheet name="TC03 " sheetId="4" r:id="rId3"/>
+    <sheet name="TC04" sheetId="3" r:id="rId4"/>
     <sheet name="TC05 " sheetId="5" r:id="rId5"/>
     <sheet name="TC06" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="94">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Ingresa a modificar cuenta</t>
+  </si>
+  <si>
+    <t>Tester: Agustin Gazza</t>
+  </si>
+  <si>
+    <t>DF-001: La pagina guarda los resultados aunque la direccion ingresada sea invalida.</t>
   </si>
 </sst>
 </file>
@@ -801,6 +807,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,48 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1187,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,10 +1225,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1234,10 +1240,10 @@
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1249,10 +1255,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1376,33 +1382,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -1418,53 +1424,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -1494,32 +1500,24 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
         <v>32</v>
@@ -1529,32 +1527,24 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
         <v>32</v>
@@ -1564,32 +1554,24 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
         <v>32</v>
@@ -1599,10 +1581,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1614,10 +1596,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1629,10 +1611,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1643,113 +1625,75 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="K29:L29"/>
@@ -1766,6 +1710,42 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1776,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB43-0FFB-4190-909A-F53CAD079E33}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,10 +1788,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1823,10 +1803,10 @@
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1838,10 +1818,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1965,33 +1945,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -2007,53 +1987,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -2083,115 +2063,85 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2203,10 +2153,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2218,10 +2168,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2232,119 +2182,75 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -2355,17 +2261,623 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20333BF7-34E5-4239-A220-3A7EBB5F0B6B}">
+  <dimension ref="A1:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="G17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="G20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+    </row>
+    <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+    </row>
+    <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+    </row>
+    <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+    </row>
+    <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038B049-11CA-4A70-80B7-3BAEE0771E9C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,10 +2908,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -2411,10 +2923,10 @@
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -2426,10 +2938,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -2553,33 +3065,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -2595,53 +3107,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -2671,14 +3183,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -2706,14 +3218,14 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2741,14 +3253,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -2776,10 +3288,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2791,10 +3303,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2806,10 +3318,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2820,119 +3332,77 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -2943,542 +3413,40 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20333BF7-34E5-4239-A220-3A7EBB5F0B6B}">
-  <dimension ref="A1:W30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="4">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-    </row>
-    <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="38"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="G17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>1</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>2</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>3</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="G20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>4</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-    </row>
-    <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-    </row>
-    <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-    </row>
-    <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -3487,50 +3455,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3572,10 +3496,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -3587,10 +3511,10 @@
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3602,10 +3526,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -3729,33 +3653,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -3771,53 +3695,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -3847,14 +3771,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -3882,14 +3806,14 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -3917,14 +3841,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -3952,10 +3876,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -3967,10 +3891,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3982,10 +3906,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3996,119 +3920,77 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -4119,6 +4001,48 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4160,10 +4084,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -4175,10 +4099,10 @@
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -4190,10 +4114,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -4317,33 +4241,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -4359,53 +4283,53 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="30"/>
       <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
@@ -4435,14 +4359,14 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
@@ -4470,14 +4394,14 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="11" t="s">
         <v>30</v>
       </c>
@@ -4505,14 +4429,14 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
@@ -4540,10 +4464,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -4555,10 +4479,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -4570,10 +4494,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -4584,119 +4508,77 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -4707,27 +4589,54 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -4859,24 +4768,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4892,4 +4799,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TPO - TC-PE53.xlsx
+++ b/TPO - TC-PE53.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1C29A-ABFF-48C1-BD83-BAEDCC641FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F4C7B-3731-4354-A05B-D42C3F62AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01 " sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="93">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
     <t>Tester: Jane Williams</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>Diego Aprosoff</t>
   </si>
   <si>
@@ -323,6 +317,9 @@
   </si>
   <si>
     <t>DF-001: La pagina guarda los resultados aunque la direccion ingresada sea invalida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: </t>
   </si>
 </sst>
 </file>
@@ -807,6 +804,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -824,54 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1193,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,25 +1222,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1255,10 +1252,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1323,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,13 +1334,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1351,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -1369,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1378,44 +1375,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -1424,167 +1421,161 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="34"/>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="34"/>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1596,10 +1587,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1611,10 +1602,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1625,75 +1616,111 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="K29:L29"/>
@@ -1710,42 +1737,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1756,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB43-0FFB-4190-909A-F53CAD079E33}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,25 +1779,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1818,10 +1809,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -1886,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,13 +1891,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1914,13 +1905,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1932,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1941,44 +1932,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -1987,95 +1978,95 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -2088,19 +2079,19 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34"/>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
@@ -2113,19 +2104,19 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="34"/>
+      <c r="B20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
@@ -2138,10 +2129,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2153,10 +2144,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2168,10 +2159,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2182,75 +2173,117 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -2261,48 +2294,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2312,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20333BF7-34E5-4239-A220-3A7EBB5F0B6B}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2344,25 +2335,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -2374,10 +2365,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -2442,13 +2433,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2456,13 +2447,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2470,13 +2461,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -2488,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2497,44 +2488,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -2543,95 +2534,95 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="G18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -2639,26 +2630,26 @@
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34"/>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="G19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
@@ -2666,26 +2657,26 @@
       <c r="L19" s="12"/>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="34"/>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
@@ -2693,17 +2684,17 @@
       <c r="L20" s="12"/>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2715,10 +2706,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2730,10 +2721,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2744,77 +2735,119 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -2825,48 +2858,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038B049-11CA-4A70-80B7-3BAEE0771E9C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,25 +2899,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -2938,10 +2929,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -3006,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,13 +3011,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3034,13 +3025,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -3052,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -3061,44 +3052,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -3107,191 +3098,149 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="G20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -3303,10 +3252,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3318,10 +3267,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3332,77 +3281,117 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -3413,48 +3402,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3464,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D373FCD7-605D-4F13-AC67-D93049A6865B}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,25 +3443,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3526,10 +3473,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -3594,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,13 +3555,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3622,13 +3569,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3640,7 +3587,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -3649,44 +3596,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -3695,191 +3642,149 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="G20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -3891,10 +3796,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -3906,10 +3811,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -3920,77 +3825,117 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -4001,48 +3946,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4052,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF74F3C7-D441-4D6E-9E77-CC4C773D3AFB}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,25 +3987,25 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="D2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -4114,10 +4017,10 @@
       <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="1"/>
@@ -4182,13 +4085,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,13 +4099,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -4210,13 +4113,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
@@ -4228,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4237,44 +4140,44 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
@@ -4283,191 +4186,149 @@
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="46"/>
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="G20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -4479,10 +4340,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -4494,10 +4355,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -4508,77 +4369,117 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -4589,54 +4490,18 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -4768,12 +4633,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4784,6 +4643,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4801,15 +4669,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
